--- a/scenario.xlsx
+++ b/scenario.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t xml:space="preserve">Блок</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">Переходы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ключевые слова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Медиа</t>
   </si>
   <si>
     <t xml:space="preserve">Приветствие</t>
@@ -95,8 +101,7 @@
     <t xml:space="preserve">Цена</t>
   </si>
   <si>
-    <t xml:space="preserve">[файл: price.jpg]
-Персональная книга про космос стоит **7000 рублей**.
+    <t xml:space="preserve">Персональная книга про космос стоит **7000 рублей**.
 🎁 В подарок с каждой книгой вы получите **книжку-раскраску** и наклейки с персонажами сказки, а также **подарочную упаковку** - дизайнерский портфельчик из плотного картона.
 ⚡ А при заказе 2-х и более книг вы получите скидку от 5 до 20%</t>
   </si>
@@ -111,11 +116,16 @@
 → Возврат_в_Приветствие</t>
   </si>
   <si>
+    <t xml:space="preserve">цена, сколько стоит, стоимость, 7000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">price.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Параметры</t>
   </si>
   <si>
-    <t xml:space="preserve">[файл: parametry.jpg]
-**Параметры книги:**
+    <t xml:space="preserve">**Параметры книги:**
 ▫️ Рекомендована для детей **3-12 лет**
 ▫️ **Размер книги:** 30 х 21 см (формат А4)
 ▫️ **64 страницы** из плотной мелованной бумаги 200 г/м2
@@ -136,6 +146,12 @@
 → Возврат_в_Приветствие</t>
   </si>
   <si>
+    <t xml:space="preserve">параметры, размер, сколько страниц, обложка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parametry.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сроки</t>
   </si>
   <si>
@@ -152,6 +168,9 @@
   <si>
     <t xml:space="preserve">→ Как_заказать
 → Возврат_в_Приветствие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сроки, когда будет готово, через сколько </t>
   </si>
   <si>
     <t xml:space="preserve">Доставка</t>
@@ -171,6 +190,9 @@
   <si>
     <t xml:space="preserve">→ Варианты_доставки | → Оплата
 → Возврат_в_Приветствие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">доставка, привезут, курьер, почта, сдэк </t>
   </si>
   <si>
     <t xml:space="preserve">Варианты_доставки</t>
@@ -205,16 +227,19 @@
 При успешной оплате вы получите электронное письмо, подтверждающее оплату и передачу заказа в производство.</t>
   </si>
   <si>
+    <t xml:space="preserve">оплата, оплатить, карта, перевод, платить</t>
+  </si>
+  <si>
     <t xml:space="preserve">Как_заказать</t>
   </si>
   <si>
-    <t xml:space="preserve">1️⃣ На нашем сайте {ссылка: http://cosmos.imenarium.ru}зайдите в раздел "Создать макет книги" и заполните форму.
+    <t xml:space="preserve">1️⃣ На нашем сайте {ссылка: http://cosmos.imenarium.ru} зайдите в раздел "Создать макет книги" и заполните форму.
 _Подробнее о создании макета читайте по кнопке ниже._
 2️⃣ Посмотрите макет своей книги прямо на сайте. При необходимости - отредактируйте макет. Окончательный вариант положите в "Корзину".
 3️⃣ Если хотите заказать вторую книгу - повторите предыдущие шаги для второй книги. Или переходите в "Корзину" для оформления заказа.
 4️⃣ В "Корзине" выберите подходящий вариант доставки, а затем оформите и оплатите заказ.
 5️⃣ Проверьте свою электронную почту - там должно быть письмо, подтверждающее оплату и передачу заказа в производство.
-_Письмо должно прийти в течение нескольких минут. Если письма нет - проверьте папку "Спам"._</t>
+_Письмо должно прийти в течение нескольких минут. Если письма нет - проверьте папку "Спам"._ </t>
   </si>
   <si>
     <t xml:space="preserve">Как создать макет книги?
@@ -225,6 +250,9 @@
     <t xml:space="preserve">→ Форма_Шаг_1
 → http://cosmos.imenarium.ru
 → Возврат_в_Приветствие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заказать, купить, оформить, как сделать, как получить </t>
   </si>
   <si>
     <t xml:space="preserve">Форма_Шаг_1</t>
@@ -332,8 +360,7 @@
     <t xml:space="preserve">О_книге</t>
   </si>
   <si>
-    <t xml:space="preserve">[файл: books.jpg]
-⭐ Эта большая увлекательная сказка расскажет всё о характере вашего ребёнка, раскроет его способности и таланты, укажет на сильные стороны и зоны роста.
+    <t xml:space="preserve">⭐ Эта большая увлекательная сказка расскажет всё о характере вашего ребёнка, раскроет его способности и таланты, укажет на сильные стороны и зоны роста.
 Ведь каждая наша книга создаётся на основе **индивидуального натального гороскопа**, в котором, помимо простого знака Зодиака по Солнцу, учитывается положение Луны и всех 8 планет Солнечной системы в момент рождения вашего малыша.
 🚀 Вместе с доброй и забавной волшебницей Астролябией главный герой отправится в захватывающее космическое путешествие.
 В зависимости от гороскопа, ребёнка будут ждать **персональные приключения с каждой планетой**. Он создаст свой магический портрет с Венерой, поучаствует в спортивных состязаниях с Марсом, отгадает загадки Меркурия, услышит древнюю притчу от Сатурна, посетит парк аттракционов Юпитера, приготовит космическое блюдо с Луной, создаст межвременную суперпочту с Ураном и многое многое другое.
@@ -352,6 +379,9 @@
 → Персонализация
 → О_нас
 → Возврат_в_Приветствие | → 2вопросы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">books.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">1_глава</t>
@@ -430,8 +460,7 @@
     <t xml:space="preserve">Персонализация</t>
   </si>
   <si>
-    <t xml:space="preserve">[файл: custom.jpg]
-В наших книгах высочайший уровень персонализации, аналогов которому нет не только в России, но и в мире ⤵️
+    <t xml:space="preserve">В наших книгах высочайший уровень персонализации, аналогов которому нет не только в России, но и в мире ⤵️
 👉 Сюжет и **приключения** создаются персонально под вашего ребёнка
 👉 Ваше собственное **название** сказки на обложке
 👉 Ваши личные **пожелания** и фото на 1-й странице
@@ -446,7 +475,11 @@
   </si>
   <si>
     <t xml:space="preserve">→ http://cosmos.imenarium.ru
-→ 2вопросы</t>
+→ 2вопросы
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">custom.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Переплет</t>
@@ -504,11 +537,10 @@
     <t xml:space="preserve">Видео</t>
   </si>
   <si>
-    <t xml:space="preserve">Посмотрите видео с нашей книгой ⤵️ 
-[файл: Raspakovka.mp4]
-Unboxing Демонстрация книги
-[файл: Obzor_1_45mb.mp4]
-Обзор блогера Анны Гориной</t>
+    <t xml:space="preserve">Unboxing Демонстрация книги; Обзор блогера Анны Гориной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspakovka.mp4; Obzor_1_45mb.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">Другой_вопрос</t>
@@ -526,6 +558,9 @@
     <t xml:space="preserve">→ https://t.me/imenarium
 → Контакты
 → 2вопросы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вопрос, оператор, связаться, поговорить, консультант </t>
   </si>
   <si>
     <t xml:space="preserve">Контакты</t>
@@ -548,6 +583,9 @@
 → (mailto:info@imenarium.ru)
 → https://cosmos.imenarium.ru
 → 2вопросы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">телефон, ватсап, WhatsApp, контакты </t>
   </si>
 </sst>
 </file>
@@ -662,7 +700,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -684,6 +722,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -879,19 +921,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="99.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,335 +950,377 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="244" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="244" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="428.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="641.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="428.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="641.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="486.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="428.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>89</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>83</v>
+        <v>96</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="1️⃣ На нашем сайте {ссылка: http://cosmos.imenarium.ru}зайдите в раздел &quot;Создать макет книги&quot; и заполните форму.&#10;_Подробнее о создании макета читайте по кнопке ниже._&#10;2️⃣ Посмотрите макет своей книги прямо на сайте. При необходимости - отредактируйте макет. Окончательный вариант положите в &quot;Корзину&quot;.&#10;3️⃣ Если хотите заказать вторую книгу - повторите предыдущие шаги для второй книги. Или переходите в &quot;Корзину&quot; для оформления заказа.&#10;4️⃣ В &quot;Корзине&quot; выберите подходящий вариант доставки, а затем оформите и оплатите заказ.&#10;5️⃣ Проверьте свою электронную почту - там должно быть письмо, подтверждающее оплату и передачу заказа в производство.&#10;_Письмо должно прийти в течение нескольких минут. Если письма нет - проверьте папку &quot;Спам&quot;._"/>
-    <hyperlink ref="D10" r:id="rId2" display="→ Форма_Шаг_1&#10;→ http://cosmos.imenarium.ru&#10;→ Возврат_в_Приветствие"/>
-    <hyperlink ref="D19" r:id="rId3" display="→ http://cosmos.imenarium.ru&#10;→ 2вопросы"/>
-    <hyperlink ref="D24" r:id="rId4" display="→ https://t.me/imenarium&#10;→ https://wa.me/79997672900&#10;→ (tel:+79997672900)&#10;→ (mailto:info@imenarium.ru)&#10;→ https://cosmos.imenarium.ru&#10;→ 2вопросы"/>
+    <hyperlink ref="B10" r:id="rId1" display="http://cosmos.imenarium.ru"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
